--- a/BibloBox/template_info6850_fail.xlsx
+++ b/BibloBox/template_info6850_fail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolapoppy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolapoppy/Documents/GitHubhttps/github_com/poppy-nicolette/ShinyShiny/ShinyShiny/BibloBox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874329DC-C932-2649-87CB-79ED7984AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9E4E8-F2ED-BE4D-BD62-509227DA6D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC243AF8-F50C-4AAA-89F9-16EC3D16994E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>custom_id</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>authors_affiliations</t>
-  </si>
-  <si>
-    <t>Some other paper</t>
   </si>
   <si>
     <t>https://openalex.org/W2339343773</t>
@@ -387,25 +384,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,9 +721,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,38 +731,38 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
@@ -779,32 +770,32 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
@@ -812,10 +803,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
@@ -823,10 +814,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" t="s">
@@ -834,10 +825,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
@@ -845,16 +836,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
@@ -862,10 +853,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
@@ -873,10 +864,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
@@ -884,10 +875,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
@@ -895,10 +886,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
@@ -906,18 +897,18 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
@@ -925,10 +916,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
@@ -936,10 +927,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
@@ -952,10 +943,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E21" t="s">
@@ -963,10 +954,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
@@ -974,10 +965,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E23" t="s">
@@ -985,10 +976,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E24" t="s">
@@ -1001,10 +992,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
@@ -1012,10 +1003,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E27" t="s">
@@ -1023,10 +1014,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E28" t="s">
@@ -1034,10 +1025,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E29" t="s">
@@ -1045,10 +1036,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E30" t="s">
@@ -1061,10 +1052,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E32" t="s">
@@ -1072,10 +1063,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="s">
@@ -1083,16 +1074,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1102,27 +1093,27 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1143,7 +1134,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,35 +1252,29 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D5" s="9" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1299,21 +1284,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB05894CDE0D0D4DBA650FF19230D243" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b041c2b40807e3665556638b1643ecdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b34f15b030d40ffca33e4aeb8eb001f5">
     <xsd:element name="properties">
@@ -1427,10 +1397,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E442B1-74BD-445C-B34F-967DF76FF79E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D998BAD9-52A0-4186-90C1-62F59EA032AF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1445,16 +1437,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D998BAD9-52A0-4186-90C1-62F59EA032AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E442B1-74BD-445C-B34F-967DF76FF79E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
